--- a/covid19_forecaster/data/models/v2/RTT Analysis.xlsx
+++ b/covid19_forecaster/data/models/v2/RTT Analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/Projects/BudgetWork/Analysis/v2/spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/Software/covid19-forecaster/covid19_forecaster/data/models/v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9A30D3-AEA3-1D4B-AEBF-9C1857994576}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947839D6-2EAE-584E-BD09-6B30117CA869}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28560" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="28560" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FY21-FY22 RTT Scenarios" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="35">
   <si>
     <t>Combined Scenarios</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Optimistic Scenario</t>
   </si>
   <si>
-    <t>Summary by Fiscal Year</t>
-  </si>
-  <si>
     <t>FY21 Total</t>
   </si>
   <si>
@@ -142,20 +139,39 @@
   <si>
     <t>Realty Transfer Tax Forecasts</t>
   </si>
+  <si>
+    <t>Pessimistic</t>
+  </si>
+  <si>
+    <t>Optimistic</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -506,134 +522,159 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="4" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="4" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="4" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="18" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="18" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -983,22 +1024,22 @@
                   <c:v>89304112</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>75935412.911166415</c:v>
+                  <c:v>72738200.7096982</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>85264533.256245464</c:v>
+                  <c:v>82148798.965801939</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>90669223.786078304</c:v>
+                  <c:v>82811394.214063168</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>85035118.257842749</c:v>
+                  <c:v>83622733.511308491</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>86307073.115262285</c:v>
+                  <c:v>84032801.576271936</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>96552359.426658183</c:v>
+                  <c:v>89749884.834898472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1262,22 +1303,22 @@
                   <c:v>89304112</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>65475063.786662012</c:v>
+                  <c:v>64027982.159817033</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>72756326.631824851</c:v>
+                  <c:v>69450544.721000165</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>80432560.83208549</c:v>
+                  <c:v>73180432.155431837</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>74673582.588005155</c:v>
+                  <c:v>74368275.845486104</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>75210541.231382519</c:v>
+                  <c:v>74988103.030603424</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>83377874.460727006</c:v>
+                  <c:v>83775184.875207037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1539,7 +1580,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Non-Residential (Raw)'!$C$1</c:f>
+              <c:f>'Non-Residential Forecast'!$V$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1562,10 +1603,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Non-Residential (Raw)'!$A$2:$A$33</c:f>
+              <c:f>'Non-Residential Forecast'!$U$3:$U$40</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>41275</c:v>
                 </c:pt>
@@ -1661,16 +1702,34 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Non-Residential (Raw)'!$C$2:$C$33</c:f>
+              <c:f>'Non-Residential Forecast'!$V$3:$V$40</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>272</c:v>
                 </c:pt>
@@ -1766,6 +1825,24 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>511.02</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>521.24040000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>531.66520800000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>542.29851215999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1773,7 +1850,286 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7FCB-924B-8A30-8BEA18D7F590}"/>
+              <c16:uniqueId val="{00000001-081C-5E4B-B83A-F7CD6C3A24B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Non-Residential Forecast'!$Z$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>num_records</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Non-Residential Forecast'!$U$3:$U$40</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>41275</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41365</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41456</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41548</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41730</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41821</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41913</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42370</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42552</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42736</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42826</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43101</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43282</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43374</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43466</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43556</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43647</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43739</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43831</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44652</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Non-Residential Forecast'!$Z$3:$Z$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>557</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>607</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>619</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>553</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>587</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>687</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>659</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>569</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>616</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>618</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>651</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>553</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>450.90000000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>455.40900000000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>464.51718000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>478.45269540000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>492.80627626200004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>512.51852731248005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000004B-081C-5E4B-B83A-F7CD6C3A24B1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1860,7 +2216,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2028,11 +2384,290 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Non-Residential (Raw)'!$D$1</c:f>
+              <c:f>'Non-Residential Forecast'!$W$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total_per_record</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Non-Residential Forecast'!$U$3:$U$40</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>41275</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41365</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41456</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41548</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41730</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41821</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41913</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42370</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42552</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42736</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42826</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43101</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43282</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43374</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43466</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43556</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43647</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43739</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43831</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44652</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Non-Residential Forecast'!$W$3:$W$40</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>47384.319852941167</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24217.6975308642</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17948.57471264368</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31476.154891304352</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28429.40590405904</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35919.664285714287</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26320.10278372591</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35895.106609808099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16097.58527827648</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40138.219739292363</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27906.7578125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25160.46622734761</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38094.92805755396</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16501.70274636511</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20291.46292947559</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29022.20102214651</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21179.225618631732</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16921.693163751988</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35261.968133535658</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>56910.660808435852</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>49614.959415584417</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31424.980582524269</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>28295.371335504889</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25900.409165302779</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24005.589090909089</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>50608.353302611373</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>51677.088607594938</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41368.102112676053</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>69645.540755467198</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>84729.127192982458</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30116.08270676692</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>34684.297405189624</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>31215.867664670663</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>31215.867664670663</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>31528.026341317371</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>31843.306604730544</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>32161.73967077785</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32483.357067485627</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C57F-3348-BF21-897A91768658}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Non-Residential Forecast'!$AA$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2055,10 +2690,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Non-Residential (Raw)'!$A$2:$A$33</c:f>
+              <c:f>'Non-Residential Forecast'!$U$3:$U$40</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>41275</c:v>
                 </c:pt>
@@ -2154,16 +2789,34 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Non-Residential (Raw)'!$D$2:$D$33</c:f>
+              <c:f>'Non-Residential Forecast'!$AA$3:$AA$40</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>47384.319852941167</c:v>
                 </c:pt>
@@ -2259,6 +2912,24 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>34684.297405189624</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>27747.437924151702</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>27747.437924151702</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>27747.437924151702</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>27747.437924151702</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>27747.437924151702</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>27747.437924151702</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2266,7 +2937,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D516-ED45-938E-B2499AEF587C}"/>
+              <c16:uniqueId val="{00000003-C57F-3348-BF21-897A91768658}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2353,7 +3024,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2520,7 +3191,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Residential (Raw)'!$C$1</c:f>
+              <c:f>'Residential Forecast'!$Z$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2543,10 +3214,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Residential (Raw)'!$A$2:$A$33</c:f>
+              <c:f>'Residential Forecast'!$Y$3:$Y$40</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>41275</c:v>
                 </c:pt>
@@ -2642,16 +3313,34 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Residential (Raw)'!$C$2:$C$33</c:f>
+              <c:f>'Residential Forecast'!$Z$3:$Z$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>6520</c:v>
                 </c:pt>
@@ -2747,6 +3436,24 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>9638</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8152.9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9425.9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9382.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9358</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9275.7000000000007</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2755,6 +3462,285 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-6536-CF49-9067-D6310EEB1EDD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Residential Forecast'!$AD$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>num_records</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Residential Forecast'!$Y$3:$Y$40</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>41275</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41365</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41456</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41548</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41730</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41821</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41913</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42370</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42552</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42736</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42826</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43101</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43282</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43374</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43466</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43556</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43647</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43739</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43831</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44652</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Residential Forecast'!$AD$3:$AD$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>6520</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7613</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7260</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5639</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7313</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7846</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7239</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7499</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9434</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9654</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9692</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9067</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11356</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11165</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10249</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9818</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10775</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10898</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9709</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8945</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11128</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10558</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10052</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8834</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9922</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10425</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9358</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8582</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4910</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8566</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9638</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7723.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8433.6999999999989</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8861.25</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8890.1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8834</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9922</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D4BA-7048-AA35-45514F73672B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3013,7 +3999,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Residential (Raw)'!$D$1</c:f>
+              <c:f>'Residential Forecast'!$AA$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3036,10 +4022,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Residential (Raw)'!$A$2:$A$33</c:f>
+              <c:f>'Residential Forecast'!$Y$3:$Y$40</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>41275</c:v>
                 </c:pt>
@@ -3135,16 +4121,34 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Residential (Raw)'!$D$2:$D$33</c:f>
+              <c:f>'Residential Forecast'!$AA$3:$AA$40</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>3560.7604294478529</c:v>
                 </c:pt>
@@ -3240,6 +4244,24 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>7462.8843120979454</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                  <c:v>7003.5264764314779</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                  <c:v>7056.0529250047148</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                  <c:v>7108.9733219422505</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                  <c:v>7162.2906218568178</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                  <c:v>7216.0078015207446</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                  <c:v>7270.1278600321502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3248,6 +4270,285 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C650-774A-92CD-343B3F07801F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Residential Forecast'!$AE$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total_per_record</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Residential Forecast'!$Y$3:$Y$40</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>41275</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41365</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41456</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41548</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41730</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41821</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41913</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42370</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42552</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42736</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42826</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43101</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43282</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43374</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43466</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43556</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43647</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43739</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43831</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44652</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Residential Forecast'!$AE$3:$AE$40</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>3560.7604294478529</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4196.9394456850123</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4637.0307162534436</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4179.5419696969693</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4957.8487320446884</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4524.0768494461918</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4548.8822329849609</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4568.0310816411111</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3749.7770369382579</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4485.7036251854988</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5065.3522892065466</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4156.1088526619897</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4088.719863240322</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3960.0988904543851</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4510.4024182713838</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4417.8950141477217</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3941.7239763699331</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5146.0131786542916</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5529.8978711690224</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5078.26501184468</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5901.323868082728</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5876.3190150970522</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6615.3257245690475</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6229.6869279745324</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5167.1956078786507</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6970.4639185648057</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6013.3535731414868</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6160.9285103654629</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6330.0763225355386</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7232.8708757637478</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6779.7326640205474</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7462.8843120979454</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                  <c:v>6669.8597063384641</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                  <c:v>6736.5583034018491</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                  <c:v>6803.9238864358676</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                  <c:v>6871.9631253002262</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                  <c:v>6940.6827565532285</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                  <c:v>7010.0895841187612</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1B3D-8445-993C-B060E51D7D6B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6820,8 +8121,8 @@
   </sheetPr>
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6837,51 +8138,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="27" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
+      <c r="A1" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
     </row>
     <row r="2" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:14" s="27" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:14" s="27" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="L4" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="52"/>
-      <c r="N4" s="53"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="L4" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="73"/>
+      <c r="N4" s="74"/>
     </row>
     <row r="5" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="L5" s="28"/>
       <c r="M5" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="30" t="s">
         <v>25</v>
-      </c>
-      <c r="N5" s="30" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="32" t="str">
         <f>'[1]Scenario Analysis'!B17</f>
@@ -6916,20 +8217,20 @@
         <v>FY22 Q4</v>
       </c>
       <c r="L6" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="61">
+        <v>27</v>
+      </c>
+      <c r="M6" s="53">
         <f>SUM(B9:E9)</f>
-        <v>320595565.16741192</v>
-      </c>
-      <c r="N6" s="62">
+        <v>314282618.67550015</v>
+      </c>
+      <c r="N6" s="54">
         <f>SUM(F9:I9)</f>
-        <v>358563774.58584154</v>
+        <v>340216814.13654208</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="27" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="35">
         <f>'Non-Residential (Raw)'!B32</f>
@@ -6941,41 +8242,41 @@
       </c>
       <c r="D7" s="35">
         <f>'Non-Residential Forecast'!D58</f>
-        <v>16430490.674820002</v>
+        <v>15639149.700000001</v>
       </c>
       <c r="E7" s="35">
         <f>'Non-Residential Forecast'!D59</f>
-        <v>17094282.498082731</v>
+        <v>15639149.700000001</v>
       </c>
       <c r="F7" s="35">
         <f>'Non-Residential Forecast'!D60</f>
-        <v>17610529.82952483</v>
+        <v>16111452.020940002</v>
       </c>
       <c r="G7" s="35">
         <f>'Non-Residential Forecast'!D61</f>
-        <v>18142367.830376476</v>
+        <v>16598017.871972391</v>
       </c>
       <c r="H7" s="35">
         <f>'Non-Residential Forecast'!D62</f>
-        <v>18507029.423767045</v>
+        <v>17099278.011705957</v>
       </c>
       <c r="I7" s="35">
         <f>'Non-Residential Forecast'!D63</f>
-        <v>18879020.715184763</v>
+        <v>17615676.207659476</v>
       </c>
       <c r="L7" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="63">
+        <v>28</v>
+      </c>
+      <c r="M7" s="55">
         <v>292816000</v>
       </c>
-      <c r="N7" s="64">
+      <c r="N7" s="56">
         <v>301308000</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="27" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="40">
         <f>'Residential (Raw)'!B32</f>
@@ -6987,76 +8288,76 @@
       </c>
       <c r="D8" s="40">
         <f>'Residential Forecast'!D58</f>
-        <v>59504922.236346409</v>
+        <v>57099051.009698197</v>
       </c>
       <c r="E8" s="40">
         <f>'Residential Forecast'!D59</f>
-        <v>68170250.758162737</v>
+        <v>66509649.265801936</v>
       </c>
       <c r="F8" s="40">
         <f>'Residential Forecast'!D60</f>
-        <v>73058693.956553474</v>
+        <v>66699942.193123169</v>
       </c>
       <c r="G8" s="40">
         <f>'Residential Forecast'!D61</f>
-        <v>66892750.427466281</v>
+        <v>67024715.639336102</v>
       </c>
       <c r="H8" s="40">
         <f>'Residential Forecast'!D62</f>
-        <v>67800043.69149524</v>
+        <v>66933523.564565979</v>
       </c>
       <c r="I8" s="40">
         <f>'Residential Forecast'!D63</f>
-        <v>77673338.71147342</v>
+        <v>72134208.627238989</v>
       </c>
       <c r="J8" s="37"/>
       <c r="L8" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" s="58">
+        <v>29</v>
+      </c>
+      <c r="M8" s="50">
         <f>M6-M7</f>
-        <v>27779565.167411923</v>
-      </c>
-      <c r="N8" s="59">
+        <v>21466618.675500154</v>
+      </c>
+      <c r="N8" s="51">
         <f>N6-N7</f>
-        <v>57255774.585841537</v>
+        <v>38908814.136542082</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="27" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A9" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="60">
+      <c r="B9" s="52">
         <f t="shared" ref="B9:I9" si="0">SUM(B7:B8)</f>
         <v>70091507</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="52">
         <f t="shared" si="0"/>
         <v>89304112</v>
       </c>
-      <c r="D9" s="60">
+      <c r="D9" s="52">
         <f t="shared" si="0"/>
-        <v>75935412.911166415</v>
-      </c>
-      <c r="E9" s="60">
+        <v>72738200.7096982</v>
+      </c>
+      <c r="E9" s="52">
         <f t="shared" si="0"/>
-        <v>85264533.256245464</v>
-      </c>
-      <c r="F9" s="60">
+        <v>82148798.965801939</v>
+      </c>
+      <c r="F9" s="52">
         <f t="shared" si="0"/>
-        <v>90669223.786078304</v>
-      </c>
-      <c r="G9" s="60">
+        <v>82811394.214063168</v>
+      </c>
+      <c r="G9" s="52">
         <f t="shared" si="0"/>
-        <v>85035118.257842749</v>
-      </c>
-      <c r="H9" s="60">
+        <v>83622733.511308491</v>
+      </c>
+      <c r="H9" s="52">
         <f t="shared" si="0"/>
-        <v>86307073.115262285</v>
-      </c>
-      <c r="I9" s="60">
+        <v>84032801.576271936</v>
+      </c>
+      <c r="I9" s="52">
         <f t="shared" si="0"/>
-        <v>96552359.426658183</v>
+        <v>89749884.834898472</v>
       </c>
       <c r="J9" s="37"/>
     </row>
@@ -7091,32 +8392,32 @@
       <c r="J13" s="37"/>
     </row>
     <row r="14" spans="1:14" s="27" customFormat="1" ht="26" x14ac:dyDescent="0.3">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
       <c r="J14" s="37"/>
-      <c r="L14" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="M14" s="52"/>
-      <c r="N14" s="53"/>
+      <c r="L14" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="73"/>
+      <c r="N14" s="74"/>
     </row>
     <row r="15" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="J15" s="37"/>
       <c r="L15" s="28"/>
       <c r="M15" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" s="30" t="s">
         <v>25</v>
-      </c>
-      <c r="N15" s="30" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -7158,20 +8459,20 @@
       </c>
       <c r="J16" s="37"/>
       <c r="L16" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="M16" s="61">
+        <v>27</v>
+      </c>
+      <c r="M16" s="53">
         <f>SUM(B19:E19)</f>
-        <v>297627009.41848683</v>
-      </c>
-      <c r="N16" s="62">
+        <v>292874145.88081717</v>
+      </c>
+      <c r="N16" s="54">
         <f>SUM(F19:I19)</f>
-        <v>313694559.11220014</v>
+        <v>306311995.90672839</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="35">
         <f>B7</f>
@@ -7183,44 +8484,44 @@
       </c>
       <c r="D17" s="35">
         <f>'Non-Residential Forecast'!E58</f>
-        <v>13016777.078304004</v>
+        <v>12511319.760000004</v>
       </c>
       <c r="E17" s="35">
         <f>'Non-Residential Forecast'!E59</f>
-        <v>13542654.872267488</v>
+        <v>12636432.957600003</v>
       </c>
       <c r="F17" s="35">
         <f>'Non-Residential Forecast'!E60</f>
-        <v>14227913.208804224</v>
+        <v>12889161.616752004</v>
       </c>
       <c r="G17" s="35">
         <f>'Non-Residential Forecast'!E61</f>
-        <v>14947845.617169719</v>
+        <v>13275836.465254564</v>
       </c>
       <c r="H17" s="35">
         <f>'Non-Residential Forecast'!E62</f>
-        <v>15399270.554808244</v>
+        <v>13674111.5592122</v>
       </c>
       <c r="I17" s="35">
         <f>'Non-Residential Forecast'!E63</f>
-        <v>15864328.525563456</v>
+        <v>14221076.021580689</v>
       </c>
       <c r="J17" s="37"/>
       <c r="L17" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="M17" s="63">
+        <v>28</v>
+      </c>
+      <c r="M17" s="55">
         <f>M7</f>
         <v>292816000</v>
       </c>
-      <c r="N17" s="64">
+      <c r="N17" s="56">
         <f>N7</f>
         <v>301308000</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="27" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="47">
         <f>B8</f>
@@ -7232,39 +8533,39 @@
       </c>
       <c r="D18" s="40">
         <f>'Residential Forecast'!E58</f>
-        <v>52458286.708358012</v>
+        <v>51516662.399817027</v>
       </c>
       <c r="E18" s="40">
         <f>'Residential Forecast'!E59</f>
-        <v>59213671.759557359</v>
+        <v>56814111.763400167</v>
       </c>
       <c r="F18" s="40">
         <f>'Residential Forecast'!E60</f>
-        <v>66204647.623281263</v>
+        <v>60291270.538679831</v>
       </c>
       <c r="G18" s="40">
         <f>'Residential Forecast'!E61</f>
-        <v>59725736.970835432</v>
+        <v>61092439.380231544</v>
       </c>
       <c r="H18" s="40">
         <f>'Residential Forecast'!E62</f>
-        <v>59811270.676574267</v>
+        <v>61313991.471391223</v>
       </c>
       <c r="I18" s="40">
         <f>'Residential Forecast'!E63</f>
-        <v>67513545.935163543</v>
+        <v>69554108.853626356</v>
       </c>
       <c r="J18" s="37"/>
       <c r="L18" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="M18" s="58">
+        <v>29</v>
+      </c>
+      <c r="M18" s="50">
         <f>M16-M17</f>
-        <v>4811009.4184868336</v>
-      </c>
-      <c r="N18" s="59">
+        <v>58145.880817174911</v>
+      </c>
+      <c r="N18" s="51">
         <f>N16-N17</f>
-        <v>12386559.112200141</v>
+        <v>5003995.9067283869</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="27" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -7272,37 +8573,37 @@
         <f>'[1]Scenario Analysis'!A42</f>
         <v>Total</v>
       </c>
-      <c r="B19" s="60">
+      <c r="B19" s="52">
         <f t="shared" ref="B19:C19" si="1">SUM(B17:B18)</f>
         <v>70091507</v>
       </c>
-      <c r="C19" s="60">
+      <c r="C19" s="52">
         <f t="shared" si="1"/>
         <v>89304112</v>
       </c>
-      <c r="D19" s="60">
+      <c r="D19" s="52">
         <f>SUM(D17:D18)</f>
-        <v>65475063.786662012</v>
-      </c>
-      <c r="E19" s="60">
+        <v>64027982.159817033</v>
+      </c>
+      <c r="E19" s="52">
         <f t="shared" ref="E19:I19" si="2">SUM(E17:E18)</f>
-        <v>72756326.631824851</v>
-      </c>
-      <c r="F19" s="60">
+        <v>69450544.721000165</v>
+      </c>
+      <c r="F19" s="52">
         <f t="shared" si="2"/>
-        <v>80432560.83208549</v>
-      </c>
-      <c r="G19" s="60">
+        <v>73180432.155431837</v>
+      </c>
+      <c r="G19" s="52">
         <f t="shared" si="2"/>
-        <v>74673582.588005155</v>
-      </c>
-      <c r="H19" s="60">
+        <v>74368275.845486104</v>
+      </c>
+      <c r="H19" s="52">
         <f t="shared" si="2"/>
-        <v>75210541.231382519</v>
-      </c>
-      <c r="I19" s="60">
+        <v>74988103.030603424</v>
+      </c>
+      <c r="I19" s="52">
         <f t="shared" si="2"/>
-        <v>83377874.460727006</v>
+        <v>83775184.875207037</v>
       </c>
       <c r="J19" s="37"/>
     </row>
@@ -7942,11 +9243,11 @@
       </c>
       <c r="B38" s="25">
         <f>'Non-Residential Forecast'!D58+'Residential Forecast'!D58</f>
-        <v>75935412.911166415</v>
+        <v>72738200.7096982</v>
       </c>
       <c r="C38" s="25">
         <f>'Non-Residential Forecast'!E58+'Residential Forecast'!E58</f>
-        <v>65475063.786662012</v>
+        <v>64027982.159817033</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -7955,11 +9256,11 @@
       </c>
       <c r="B39" s="25">
         <f>'Non-Residential Forecast'!D59+'Residential Forecast'!D59</f>
-        <v>85264533.256245464</v>
+        <v>82148798.965801939</v>
       </c>
       <c r="C39" s="25">
         <f>'Non-Residential Forecast'!E59+'Residential Forecast'!E59</f>
-        <v>72756326.631824851</v>
+        <v>69450544.721000165</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -7968,11 +9269,11 @@
       </c>
       <c r="B40" s="25">
         <f>'Non-Residential Forecast'!D60+'Residential Forecast'!D60</f>
-        <v>90669223.786078304</v>
+        <v>82811394.214063168</v>
       </c>
       <c r="C40" s="25">
         <f>'Non-Residential Forecast'!E60+'Residential Forecast'!E60</f>
-        <v>80432560.83208549</v>
+        <v>73180432.155431837</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -7981,11 +9282,11 @@
       </c>
       <c r="B41" s="25">
         <f>'Non-Residential Forecast'!D61+'Residential Forecast'!D61</f>
-        <v>85035118.257842749</v>
+        <v>83622733.511308491</v>
       </c>
       <c r="C41" s="25">
         <f>'Non-Residential Forecast'!E61+'Residential Forecast'!E61</f>
-        <v>74673582.588005155</v>
+        <v>74368275.845486104</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -7994,11 +9295,11 @@
       </c>
       <c r="B42" s="25">
         <f>'Non-Residential Forecast'!D62+'Residential Forecast'!D62</f>
-        <v>86307073.115262285</v>
+        <v>84032801.576271936</v>
       </c>
       <c r="C42" s="25">
         <f>'Non-Residential Forecast'!E62+'Residential Forecast'!E62</f>
-        <v>75210541.231382519</v>
+        <v>74988103.030603424</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -8007,11 +9308,11 @@
       </c>
       <c r="B43" s="25">
         <f>'Non-Residential Forecast'!D63+'Residential Forecast'!D63</f>
-        <v>96552359.426658183</v>
+        <v>89749884.834898472</v>
       </c>
       <c r="C43" s="25">
         <f>'Non-Residential Forecast'!E63+'Residential Forecast'!E63</f>
-        <v>83377874.460727006</v>
+        <v>83775184.875207037</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -8027,10 +9328,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6127E27-7D2E-1843-9597-0C451E29C57C}">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:AA63"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView topLeftCell="D15" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8041,32 +9342,106 @@
     <col min="5" max="5" width="15" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.83203125" style="10" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="10"/>
+    <col min="8" max="22" width="10.83203125" style="10"/>
+    <col min="23" max="23" width="11.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="10.83203125" style="10"/>
+    <col min="27" max="27" width="11.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="U1" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="U2" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="V2" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z2" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA2" s="62" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="U3" s="61">
+        <v>41275</v>
+      </c>
+      <c r="V3" s="63">
+        <v>272</v>
+      </c>
+      <c r="W3" s="64">
+        <v>47384.319852941167</v>
+      </c>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="65">
+        <v>41275</v>
+      </c>
+      <c r="Z3" s="63">
+        <v>272</v>
+      </c>
+      <c r="AA3" s="64">
+        <v>47384.319852941167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54" t="s">
+      <c r="E4" s="76"/>
+      <c r="F4" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="54"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G4" s="76"/>
+      <c r="U4" s="61">
+        <v>41365</v>
+      </c>
+      <c r="V4" s="63">
+        <v>324</v>
+      </c>
+      <c r="W4" s="64">
+        <v>24217.6975308642</v>
+      </c>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="65">
+        <v>41365</v>
+      </c>
+      <c r="Z4" s="63">
+        <v>324</v>
+      </c>
+      <c r="AA4" s="64">
+        <v>24217.6975308642</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="9" t="s">
         <v>5</v>
@@ -8086,8 +9461,27 @@
       <c r="G5" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="U5" s="61">
+        <v>41456</v>
+      </c>
+      <c r="V5" s="63">
+        <v>261</v>
+      </c>
+      <c r="W5" s="64">
+        <v>17948.57471264368</v>
+      </c>
+      <c r="X5" s="60"/>
+      <c r="Y5" s="65">
+        <v>41456</v>
+      </c>
+      <c r="Z5" s="63">
+        <v>261</v>
+      </c>
+      <c r="AA5" s="64">
+        <v>17948.57471264368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="12">
         <v>43466</v>
       </c>
@@ -8095,8 +9489,27 @@
         <f>'Non-Residential (Raw)'!C26</f>
         <v>550</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="U6" s="61">
+        <v>41548</v>
+      </c>
+      <c r="V6" s="63">
+        <v>368</v>
+      </c>
+      <c r="W6" s="64">
+        <v>31476.154891304352</v>
+      </c>
+      <c r="X6" s="60"/>
+      <c r="Y6" s="65">
+        <v>41548</v>
+      </c>
+      <c r="Z6" s="63">
+        <v>368</v>
+      </c>
+      <c r="AA6" s="64">
+        <v>31476.154891304352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B7" s="12">
         <v>43556</v>
       </c>
@@ -8104,8 +9517,27 @@
         <f>'Non-Residential (Raw)'!C27</f>
         <v>651</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="U7" s="61">
+        <v>41640</v>
+      </c>
+      <c r="V7" s="63">
+        <v>271</v>
+      </c>
+      <c r="W7" s="64">
+        <v>28429.40590405904</v>
+      </c>
+      <c r="X7" s="60"/>
+      <c r="Y7" s="65">
+        <v>41640</v>
+      </c>
+      <c r="Z7" s="63">
+        <v>271</v>
+      </c>
+      <c r="AA7" s="64">
+        <v>28429.40590405904</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B8" s="12">
         <v>43647</v>
       </c>
@@ -8113,8 +9545,27 @@
         <f>'Non-Residential (Raw)'!C28</f>
         <v>553</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="U8" s="61">
+        <v>41730</v>
+      </c>
+      <c r="V8" s="63">
+        <v>420</v>
+      </c>
+      <c r="W8" s="64">
+        <v>35919.664285714287</v>
+      </c>
+      <c r="X8" s="60"/>
+      <c r="Y8" s="65">
+        <v>41730</v>
+      </c>
+      <c r="Z8" s="63">
+        <v>420</v>
+      </c>
+      <c r="AA8" s="64">
+        <v>35919.664285714287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B9" s="12">
         <v>43739</v>
       </c>
@@ -8122,8 +9573,27 @@
         <f>'Non-Residential (Raw)'!C29</f>
         <v>568</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="U9" s="61">
+        <v>41821</v>
+      </c>
+      <c r="V9" s="63">
+        <v>467</v>
+      </c>
+      <c r="W9" s="64">
+        <v>26320.10278372591</v>
+      </c>
+      <c r="X9" s="60"/>
+      <c r="Y9" s="65">
+        <v>41821</v>
+      </c>
+      <c r="Z9" s="63">
+        <v>467</v>
+      </c>
+      <c r="AA9" s="64">
+        <v>26320.10278372591</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B10" s="12">
         <v>43831</v>
       </c>
@@ -8131,8 +9601,27 @@
         <f>'Non-Residential (Raw)'!C30</f>
         <v>503</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="U10" s="61">
+        <v>41913</v>
+      </c>
+      <c r="V10" s="63">
+        <v>469</v>
+      </c>
+      <c r="W10" s="64">
+        <v>35895.106609808099</v>
+      </c>
+      <c r="X10" s="60"/>
+      <c r="Y10" s="65">
+        <v>41913</v>
+      </c>
+      <c r="Z10" s="63">
+        <v>469</v>
+      </c>
+      <c r="AA10" s="64">
+        <v>35895.106609808099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B11" s="12">
         <v>43922</v>
       </c>
@@ -8140,8 +9629,27 @@
         <f>'Non-Residential (Raw)'!C31</f>
         <v>228</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="U11" s="61">
+        <v>42005</v>
+      </c>
+      <c r="V11" s="63">
+        <v>557</v>
+      </c>
+      <c r="W11" s="64">
+        <v>16097.58527827648</v>
+      </c>
+      <c r="X11" s="60"/>
+      <c r="Y11" s="65">
+        <v>42005</v>
+      </c>
+      <c r="Z11" s="63">
+        <v>557</v>
+      </c>
+      <c r="AA11" s="64">
+        <v>16097.58527827648</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B12" s="12">
         <v>44013</v>
       </c>
@@ -8149,8 +9657,27 @@
         <f>'Non-Residential (Raw)'!C32</f>
         <v>399</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="U12" s="61">
+        <v>42095</v>
+      </c>
+      <c r="V12" s="63">
+        <v>537</v>
+      </c>
+      <c r="W12" s="64">
+        <v>40138.219739292363</v>
+      </c>
+      <c r="X12" s="60"/>
+      <c r="Y12" s="65">
+        <v>42095</v>
+      </c>
+      <c r="Z12" s="63">
+        <v>537</v>
+      </c>
+      <c r="AA12" s="64">
+        <v>40138.219739292363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B13" s="12">
         <v>44105</v>
       </c>
@@ -8158,8 +9685,27 @@
         <f>'Non-Residential (Raw)'!C33</f>
         <v>501</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="U13" s="61">
+        <v>42186</v>
+      </c>
+      <c r="V13" s="63">
+        <v>640</v>
+      </c>
+      <c r="W13" s="64">
+        <v>27906.7578125</v>
+      </c>
+      <c r="X13" s="60"/>
+      <c r="Y13" s="65">
+        <v>42186</v>
+      </c>
+      <c r="Z13" s="63">
+        <v>640</v>
+      </c>
+      <c r="AA13" s="64">
+        <v>27906.7578125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>9</v>
       </c>
@@ -8167,141 +9713,373 @@
         <v>44197</v>
       </c>
       <c r="D14" s="14">
-        <v>0.02</v>
-      </c>
-      <c r="E14" s="56">
+        <v>0</v>
+      </c>
+      <c r="E14" s="48">
         <f>C13*(1+D14)</f>
-        <v>511.02</v>
+        <v>501</v>
       </c>
       <c r="F14" s="14">
-        <v>0.02</v>
-      </c>
-      <c r="G14" s="56">
-        <f>0.9*C13*(1+F14)</f>
-        <v>459.91800000000006</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="48">
+        <f>C13*(1+F14) * 0.9</f>
+        <v>450.90000000000003</v>
+      </c>
+      <c r="U14" s="61">
+        <v>42278</v>
+      </c>
+      <c r="V14" s="63">
+        <v>607</v>
+      </c>
+      <c r="W14" s="64">
+        <v>25160.46622734761</v>
+      </c>
+      <c r="X14" s="60"/>
+      <c r="Y14" s="65">
+        <v>42278</v>
+      </c>
+      <c r="Z14" s="63">
+        <v>607</v>
+      </c>
+      <c r="AA14" s="64">
+        <v>25160.46622734761</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B15" s="12">
         <v>44287</v>
       </c>
-      <c r="D15" s="14">
-        <v>0.02</v>
-      </c>
-      <c r="E15" s="56">
+      <c r="D15" s="68">
+        <v>0</v>
+      </c>
+      <c r="E15" s="48">
         <f>E14*(1+D15)</f>
-        <v>521.24040000000002</v>
+        <v>501</v>
       </c>
       <c r="F15" s="14">
-        <v>0.02</v>
-      </c>
-      <c r="G15" s="56">
+        <v>0.01</v>
+      </c>
+      <c r="G15" s="48">
         <f>G14*(1+F15)</f>
-        <v>469.1163600000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>455.40900000000005</v>
+      </c>
+      <c r="U15" s="61">
+        <v>42370</v>
+      </c>
+      <c r="V15" s="63">
+        <v>556</v>
+      </c>
+      <c r="W15" s="64">
+        <v>38094.92805755396</v>
+      </c>
+      <c r="X15" s="60"/>
+      <c r="Y15" s="65">
+        <v>42370</v>
+      </c>
+      <c r="Z15" s="63">
+        <v>556</v>
+      </c>
+      <c r="AA15" s="64">
+        <v>38094.92805755396</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B16" s="12">
         <v>44378</v>
       </c>
       <c r="D16" s="14">
-        <v>0.01</v>
-      </c>
-      <c r="E16" s="56">
+        <v>0.02</v>
+      </c>
+      <c r="E16" s="48">
         <f t="shared" ref="E16:E19" si="0">E15*(1+D16)</f>
-        <v>526.45280400000001</v>
+        <v>511.02</v>
       </c>
       <c r="F16" s="14">
-        <v>0.03</v>
-      </c>
-      <c r="G16" s="56">
+        <v>0.02</v>
+      </c>
+      <c r="G16" s="48">
         <f t="shared" ref="G16:G19" si="1">G15*(1+F16)</f>
-        <v>483.1898508000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>464.51718000000005</v>
+      </c>
+      <c r="U16" s="61">
+        <v>42461</v>
+      </c>
+      <c r="V16" s="63">
+        <v>619</v>
+      </c>
+      <c r="W16" s="64">
+        <v>16501.70274636511</v>
+      </c>
+      <c r="X16" s="60"/>
+      <c r="Y16" s="65">
+        <v>42461</v>
+      </c>
+      <c r="Z16" s="63">
+        <v>619</v>
+      </c>
+      <c r="AA16" s="64">
+        <v>16501.70274636511</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B17" s="12">
         <v>44470</v>
       </c>
       <c r="D17" s="14">
-        <v>0.01</v>
-      </c>
-      <c r="E17" s="56">
+        <v>0.02</v>
+      </c>
+      <c r="E17" s="48">
         <f t="shared" si="0"/>
-        <v>531.71733203999997</v>
+        <v>521.24040000000002</v>
       </c>
       <c r="F17" s="14">
         <v>0.03</v>
       </c>
-      <c r="G17" s="56">
+      <c r="G17" s="48">
         <f t="shared" si="1"/>
-        <v>497.68554632400014</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>478.45269540000004</v>
+      </c>
+      <c r="U17" s="61">
+        <v>42552</v>
+      </c>
+      <c r="V17" s="63">
+        <v>553</v>
+      </c>
+      <c r="W17" s="64">
+        <v>20291.46292947559</v>
+      </c>
+      <c r="X17" s="60"/>
+      <c r="Y17" s="65">
+        <v>42552</v>
+      </c>
+      <c r="Z17" s="63">
+        <v>553</v>
+      </c>
+      <c r="AA17" s="64">
+        <v>20291.46292947559</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B18" s="12">
         <v>44562</v>
       </c>
       <c r="D18" s="14">
-        <v>0.01</v>
-      </c>
-      <c r="E18" s="56">
+        <v>0.02</v>
+      </c>
+      <c r="E18" s="48">
         <f t="shared" si="0"/>
-        <v>537.03450536039998</v>
+        <v>531.66520800000001</v>
       </c>
       <c r="F18" s="14">
-        <v>0.02</v>
-      </c>
-      <c r="G18" s="56">
+        <v>0.03</v>
+      </c>
+      <c r="G18" s="48">
         <f t="shared" si="1"/>
-        <v>507.63925725048017</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>492.80627626200004</v>
+      </c>
+      <c r="U18" s="61">
+        <v>42644</v>
+      </c>
+      <c r="V18" s="63">
+        <v>587</v>
+      </c>
+      <c r="W18" s="64">
+        <v>29022.20102214651</v>
+      </c>
+      <c r="X18" s="60"/>
+      <c r="Y18" s="65">
+        <v>42644</v>
+      </c>
+      <c r="Z18" s="63">
+        <v>587</v>
+      </c>
+      <c r="AA18" s="64">
+        <v>29022.20102214651</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B19" s="12">
         <v>44652</v>
       </c>
       <c r="D19" s="14">
-        <v>0.01</v>
-      </c>
-      <c r="E19" s="56">
+        <v>0.02</v>
+      </c>
+      <c r="E19" s="48">
         <f t="shared" si="0"/>
-        <v>542.40485041400393</v>
+        <v>542.29851215999997</v>
       </c>
       <c r="F19" s="14">
-        <v>0.02</v>
-      </c>
-      <c r="G19" s="56">
+        <v>0.04</v>
+      </c>
+      <c r="G19" s="48">
         <f t="shared" si="1"/>
-        <v>517.79204239548983</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>512.51852731248005</v>
+      </c>
+      <c r="U19" s="61">
+        <v>42736</v>
+      </c>
+      <c r="V19" s="63">
+        <v>687</v>
+      </c>
+      <c r="W19" s="64">
+        <v>21179.225618631732</v>
+      </c>
+      <c r="X19" s="60"/>
+      <c r="Y19" s="65">
+        <v>42736</v>
+      </c>
+      <c r="Z19" s="63">
+        <v>687</v>
+      </c>
+      <c r="AA19" s="64">
+        <v>21179.225618631732</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="20"/>
-    </row>
-    <row r="22" spans="1:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="U20" s="61">
+        <v>42826</v>
+      </c>
+      <c r="V20" s="63">
+        <v>629</v>
+      </c>
+      <c r="W20" s="64">
+        <v>16921.693163751988</v>
+      </c>
+      <c r="X20" s="60"/>
+      <c r="Y20" s="65">
+        <v>42826</v>
+      </c>
+      <c r="Z20" s="63">
+        <v>629</v>
+      </c>
+      <c r="AA20" s="64">
+        <v>16921.693163751988</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="U21" s="61">
+        <v>42917</v>
+      </c>
+      <c r="V21" s="63">
+        <v>659</v>
+      </c>
+      <c r="W21" s="64">
+        <v>35261.968133535658</v>
+      </c>
+      <c r="X21" s="60"/>
+      <c r="Y21" s="65">
+        <v>42917</v>
+      </c>
+      <c r="Z21" s="63">
+        <v>659</v>
+      </c>
+      <c r="AA21" s="64">
+        <v>35261.968133535658</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="26" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="U22" s="61">
+        <v>43009</v>
+      </c>
+      <c r="V22" s="63">
+        <v>569</v>
+      </c>
+      <c r="W22" s="64">
+        <v>56910.660808435852</v>
+      </c>
+      <c r="X22" s="60"/>
+      <c r="Y22" s="65">
+        <v>43009</v>
+      </c>
+      <c r="Z22" s="63">
+        <v>569</v>
+      </c>
+      <c r="AA22" s="64">
+        <v>56910.660808435852</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="U23" s="61">
+        <v>43101</v>
+      </c>
+      <c r="V23" s="63">
+        <v>616</v>
+      </c>
+      <c r="W23" s="64">
+        <v>49614.959415584417</v>
+      </c>
+      <c r="X23" s="60"/>
+      <c r="Y23" s="65">
+        <v>43101</v>
+      </c>
+      <c r="Z23" s="63">
+        <v>616</v>
+      </c>
+      <c r="AA23" s="64">
+        <v>49614.959415584417</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="U24" s="61">
+        <v>43191</v>
+      </c>
+      <c r="V24" s="63">
+        <v>618</v>
+      </c>
+      <c r="W24" s="64">
+        <v>31424.980582524269</v>
+      </c>
+      <c r="X24" s="60"/>
+      <c r="Y24" s="65">
+        <v>43191</v>
+      </c>
+      <c r="Z24" s="63">
+        <v>618</v>
+      </c>
+      <c r="AA24" s="64">
+        <v>31424.980582524269</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="54" t="s">
+      <c r="D25" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54" t="s">
+      <c r="E25" s="76"/>
+      <c r="F25" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="G25" s="54"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G25" s="76"/>
+      <c r="U25" s="61">
+        <v>43282</v>
+      </c>
+      <c r="V25" s="63">
+        <v>614</v>
+      </c>
+      <c r="W25" s="64">
+        <v>28295.371335504889</v>
+      </c>
+      <c r="X25" s="60"/>
+      <c r="Y25" s="65">
+        <v>43282</v>
+      </c>
+      <c r="Z25" s="63">
+        <v>614</v>
+      </c>
+      <c r="AA25" s="64">
+        <v>28295.371335504889</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
       <c r="B26" s="9" t="s">
         <v>5</v>
@@ -8321,8 +10099,27 @@
       <c r="G26" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="U26" s="61">
+        <v>43374</v>
+      </c>
+      <c r="V26" s="63">
+        <v>611</v>
+      </c>
+      <c r="W26" s="64">
+        <v>25900.409165302779</v>
+      </c>
+      <c r="X26" s="60"/>
+      <c r="Y26" s="65">
+        <v>43374</v>
+      </c>
+      <c r="Z26" s="63">
+        <v>611</v>
+      </c>
+      <c r="AA26" s="64">
+        <v>25900.409165302779</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B27" s="12">
         <v>43466</v>
       </c>
@@ -8330,8 +10127,27 @@
         <f>'Non-Residential (Raw)'!D26</f>
         <v>24005.589090909089</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="U27" s="61">
+        <v>43466</v>
+      </c>
+      <c r="V27" s="63">
+        <v>550</v>
+      </c>
+      <c r="W27" s="64">
+        <v>24005.589090909089</v>
+      </c>
+      <c r="X27" s="60"/>
+      <c r="Y27" s="65">
+        <v>43466</v>
+      </c>
+      <c r="Z27" s="63">
+        <v>550</v>
+      </c>
+      <c r="AA27" s="64">
+        <v>24005.589090909089</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B28" s="12">
         <v>43556</v>
       </c>
@@ -8339,8 +10155,27 @@
         <f>'Non-Residential (Raw)'!D27</f>
         <v>50608.353302611373</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="U28" s="61">
+        <v>43556</v>
+      </c>
+      <c r="V28" s="63">
+        <v>651</v>
+      </c>
+      <c r="W28" s="64">
+        <v>50608.353302611373</v>
+      </c>
+      <c r="X28" s="60"/>
+      <c r="Y28" s="65">
+        <v>43556</v>
+      </c>
+      <c r="Z28" s="63">
+        <v>651</v>
+      </c>
+      <c r="AA28" s="64">
+        <v>50608.353302611373</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B29" s="12">
         <v>43647</v>
       </c>
@@ -8348,8 +10183,27 @@
         <f>'Non-Residential (Raw)'!D28</f>
         <v>51677.088607594938</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="U29" s="61">
+        <v>43647</v>
+      </c>
+      <c r="V29" s="63">
+        <v>553</v>
+      </c>
+      <c r="W29" s="64">
+        <v>51677.088607594938</v>
+      </c>
+      <c r="X29" s="60"/>
+      <c r="Y29" s="65">
+        <v>43647</v>
+      </c>
+      <c r="Z29" s="63">
+        <v>553</v>
+      </c>
+      <c r="AA29" s="64">
+        <v>51677.088607594938</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B30" s="12">
         <v>43739</v>
       </c>
@@ -8357,8 +10211,27 @@
         <f>'Non-Residential (Raw)'!D29</f>
         <v>41368.102112676053</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="U30" s="61">
+        <v>43739</v>
+      </c>
+      <c r="V30" s="63">
+        <v>568</v>
+      </c>
+      <c r="W30" s="64">
+        <v>41368.102112676053</v>
+      </c>
+      <c r="X30" s="60"/>
+      <c r="Y30" s="65">
+        <v>43739</v>
+      </c>
+      <c r="Z30" s="63">
+        <v>568</v>
+      </c>
+      <c r="AA30" s="64">
+        <v>41368.102112676053</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B31" s="12">
         <v>43831</v>
       </c>
@@ -8366,8 +10239,27 @@
         <f>'Non-Residential (Raw)'!D30</f>
         <v>69645.540755467198</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="U31" s="61">
+        <v>43831</v>
+      </c>
+      <c r="V31" s="63">
+        <v>503</v>
+      </c>
+      <c r="W31" s="64">
+        <v>69645.540755467198</v>
+      </c>
+      <c r="X31" s="60"/>
+      <c r="Y31" s="65">
+        <v>43831</v>
+      </c>
+      <c r="Z31" s="63">
+        <v>503</v>
+      </c>
+      <c r="AA31" s="64">
+        <v>69645.540755467198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B32" s="12">
         <v>43922</v>
       </c>
@@ -8375,8 +10267,27 @@
         <f>'Non-Residential (Raw)'!D31</f>
         <v>84729.127192982458</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="U32" s="61">
+        <v>43922</v>
+      </c>
+      <c r="V32" s="63">
+        <v>228</v>
+      </c>
+      <c r="W32" s="64">
+        <v>84729.127192982458</v>
+      </c>
+      <c r="X32" s="60"/>
+      <c r="Y32" s="65">
+        <v>43922</v>
+      </c>
+      <c r="Z32" s="63">
+        <v>228</v>
+      </c>
+      <c r="AA32" s="64">
+        <v>84729.127192982458</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B33" s="12">
         <v>44013</v>
       </c>
@@ -8384,8 +10295,27 @@
         <f>'Non-Residential (Raw)'!D32</f>
         <v>30116.08270676692</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="U33" s="61">
+        <v>44013</v>
+      </c>
+      <c r="V33" s="63">
+        <v>399</v>
+      </c>
+      <c r="W33" s="64">
+        <v>30116.08270676692</v>
+      </c>
+      <c r="X33" s="60"/>
+      <c r="Y33" s="65">
+        <v>44013</v>
+      </c>
+      <c r="Z33" s="63">
+        <v>399</v>
+      </c>
+      <c r="AA33" s="64">
+        <v>30116.08270676692</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B34" s="12">
         <v>44105</v>
       </c>
@@ -8393,8 +10323,27 @@
         <f>'Non-Residential (Raw)'!D33</f>
         <v>34684.297405189624</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="U34" s="61">
+        <v>44105</v>
+      </c>
+      <c r="V34" s="63">
+        <v>501</v>
+      </c>
+      <c r="W34" s="64">
+        <v>34684.297405189624</v>
+      </c>
+      <c r="X34" s="60"/>
+      <c r="Y34" s="65">
+        <v>44105</v>
+      </c>
+      <c r="Z34" s="63">
+        <v>501</v>
+      </c>
+      <c r="AA34" s="64">
+        <v>34684.297405189624</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>9</v>
       </c>
@@ -8402,78 +10351,178 @@
         <v>44197</v>
       </c>
       <c r="D35" s="14">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E35" s="16">
         <f>0.9*C34*(1+D35)</f>
-        <v>32152.343694610783</v>
+        <v>31215.867664670663</v>
       </c>
       <c r="F35" s="14">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G35" s="16">
         <f>0.8*C34*(1+F35)</f>
-        <v>28302.386682634737</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+        <v>27747.437924151702</v>
+      </c>
+      <c r="U35" s="58">
+        <f>B14</f>
+        <v>44197</v>
+      </c>
+      <c r="V35" s="63">
+        <f>E14</f>
+        <v>501</v>
+      </c>
+      <c r="W35" s="64">
+        <f>E35</f>
+        <v>31215.867664670663</v>
+      </c>
+      <c r="X35" s="60"/>
+      <c r="Y35" s="59">
+        <f>U35</f>
+        <v>44197</v>
+      </c>
+      <c r="Z35" s="63">
+        <f>G14</f>
+        <v>450.90000000000003</v>
+      </c>
+      <c r="AA35" s="64">
+        <f>G35</f>
+        <v>27747.437924151702</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B36" s="12">
         <v>44287</v>
       </c>
       <c r="D36" s="14">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E36" s="16">
         <f>E35*(1+D36)</f>
-        <v>32795.390568502997</v>
+        <v>31215.867664670663</v>
       </c>
       <c r="F36" s="14">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G36" s="16">
         <f>G35*(1+F36)</f>
-        <v>28868.434416287433</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+        <v>27747.437924151702</v>
+      </c>
+      <c r="U36" s="58">
+        <f t="shared" ref="U36:U40" si="2">B15</f>
+        <v>44287</v>
+      </c>
+      <c r="V36" s="63">
+        <f t="shared" ref="V36:V40" si="3">E15</f>
+        <v>501</v>
+      </c>
+      <c r="W36" s="64">
+        <f t="shared" ref="W36:W40" si="4">E36</f>
+        <v>31215.867664670663</v>
+      </c>
+      <c r="X36" s="60"/>
+      <c r="Y36" s="59">
+        <f t="shared" ref="Y36:Y40" si="5">U36</f>
+        <v>44287</v>
+      </c>
+      <c r="Z36" s="63">
+        <f t="shared" ref="Z36:Z40" si="6">G15</f>
+        <v>455.40900000000005</v>
+      </c>
+      <c r="AA36" s="64">
+        <f t="shared" ref="AA36:AA40" si="7">G36</f>
+        <v>27747.437924151702</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B37" s="12">
         <v>44378</v>
       </c>
       <c r="D37" s="14">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="E37" s="16">
-        <f t="shared" ref="E37:E40" si="2">E36*(1+D37)</f>
-        <v>33451.298379873057</v>
+        <f t="shared" ref="E37:E40" si="8">E36*(1+D37)</f>
+        <v>31528.026341317371</v>
       </c>
       <c r="F37" s="14">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G37" s="16">
-        <f t="shared" ref="G37:G39" si="3">G36*(1+F37)</f>
-        <v>29445.803104613184</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+        <f t="shared" ref="G37:G39" si="9">G36*(1+F37)</f>
+        <v>27747.437924151702</v>
+      </c>
+      <c r="U37" s="58">
+        <f t="shared" si="2"/>
+        <v>44378</v>
+      </c>
+      <c r="V37" s="63">
+        <f t="shared" si="3"/>
+        <v>511.02</v>
+      </c>
+      <c r="W37" s="64">
+        <f t="shared" si="4"/>
+        <v>31528.026341317371</v>
+      </c>
+      <c r="X37" s="60"/>
+      <c r="Y37" s="59">
+        <f t="shared" si="5"/>
+        <v>44378</v>
+      </c>
+      <c r="Z37" s="63">
+        <f t="shared" si="6"/>
+        <v>464.51718000000005</v>
+      </c>
+      <c r="AA37" s="64">
+        <f t="shared" si="7"/>
+        <v>27747.437924151702</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B38" s="12">
         <v>44470</v>
       </c>
       <c r="D38" s="14">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="E38" s="16">
+        <f t="shared" si="8"/>
+        <v>31843.306604730544</v>
+      </c>
+      <c r="F38" s="14">
+        <v>0</v>
+      </c>
+      <c r="G38" s="16">
+        <f t="shared" si="9"/>
+        <v>27747.437924151702</v>
+      </c>
+      <c r="U38" s="58">
         <f t="shared" si="2"/>
-        <v>34120.324347470516</v>
-      </c>
-      <c r="F38" s="14">
-        <v>0.02</v>
-      </c>
-      <c r="G38" s="16">
+        <v>44470</v>
+      </c>
+      <c r="V38" s="63">
         <f t="shared" si="3"/>
-        <v>30034.719166705447</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+        <v>521.24040000000002</v>
+      </c>
+      <c r="W38" s="64">
+        <f t="shared" si="4"/>
+        <v>31843.306604730544</v>
+      </c>
+      <c r="X38" s="60"/>
+      <c r="Y38" s="59">
+        <f t="shared" si="5"/>
+        <v>44470</v>
+      </c>
+      <c r="Z38" s="63">
+        <f t="shared" si="6"/>
+        <v>478.45269540000004</v>
+      </c>
+      <c r="AA38" s="64">
+        <f t="shared" si="7"/>
+        <v>27747.437924151702</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B39" s="12">
         <v>44562</v>
       </c>
@@ -8481,18 +10530,43 @@
         <v>0.01</v>
       </c>
       <c r="E39" s="16">
+        <f t="shared" si="8"/>
+        <v>32161.73967077785</v>
+      </c>
+      <c r="F39" s="14">
+        <v>0</v>
+      </c>
+      <c r="G39" s="16">
+        <f t="shared" si="9"/>
+        <v>27747.437924151702</v>
+      </c>
+      <c r="U39" s="58">
         <f t="shared" si="2"/>
-        <v>34461.527590945225</v>
-      </c>
-      <c r="F39" s="14">
-        <v>0.01</v>
-      </c>
-      <c r="G39" s="16">
+        <v>44562</v>
+      </c>
+      <c r="V39" s="63">
         <f t="shared" si="3"/>
-        <v>30335.0663583725</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+        <v>531.66520800000001</v>
+      </c>
+      <c r="W39" s="64">
+        <f t="shared" si="4"/>
+        <v>32161.73967077785</v>
+      </c>
+      <c r="X39" s="60"/>
+      <c r="Y39" s="59">
+        <f t="shared" si="5"/>
+        <v>44562</v>
+      </c>
+      <c r="Z39" s="63">
+        <f t="shared" si="6"/>
+        <v>492.80627626200004</v>
+      </c>
+      <c r="AA39" s="64">
+        <f t="shared" si="7"/>
+        <v>27747.437924151702</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B40" s="12">
         <v>44652</v>
       </c>
@@ -8500,22 +10574,47 @@
         <v>0.01</v>
       </c>
       <c r="E40" s="16">
-        <f t="shared" si="2"/>
-        <v>34806.14286685468</v>
+        <f t="shared" si="8"/>
+        <v>32483.357067485627</v>
       </c>
       <c r="F40" s="14">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G40" s="16">
         <f>G39*(1+F40)</f>
-        <v>30638.417021956226</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D41" s="57"/>
+        <v>27747.437924151702</v>
+      </c>
+      <c r="U40" s="58">
+        <f t="shared" si="2"/>
+        <v>44652</v>
+      </c>
+      <c r="V40" s="63">
+        <f t="shared" si="3"/>
+        <v>542.29851215999997</v>
+      </c>
+      <c r="W40" s="64">
+        <f t="shared" si="4"/>
+        <v>32483.357067485627</v>
+      </c>
+      <c r="X40" s="60"/>
+      <c r="Y40" s="59">
+        <f t="shared" si="5"/>
+        <v>44652</v>
+      </c>
+      <c r="Z40" s="63">
+        <f t="shared" si="6"/>
+        <v>512.51852731248005</v>
+      </c>
+      <c r="AA40" s="64">
+        <f t="shared" si="7"/>
+        <v>27747.437924151702</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D41" s="49"/>
       <c r="F41" s="14"/>
     </row>
-    <row r="47" spans="1:7" ht="26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" ht="26" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>12</v>
       </c>
@@ -8615,12 +10714,12 @@
         <v>44197</v>
       </c>
       <c r="D58" s="18">
-        <f>E35*E14</f>
-        <v>16430490.674820002</v>
+        <f t="shared" ref="D58:D63" si="10">E35*E14</f>
+        <v>15639149.700000001</v>
       </c>
       <c r="E58" s="18">
-        <f>G35*G14</f>
-        <v>13016777.078304004</v>
+        <f t="shared" ref="E58:E63" si="11">G35*G14</f>
+        <v>12511319.760000004</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -8628,12 +10727,12 @@
         <v>44287</v>
       </c>
       <c r="D59" s="18">
-        <f>E36*E15</f>
-        <v>17094282.498082731</v>
+        <f t="shared" si="10"/>
+        <v>15639149.700000001</v>
       </c>
       <c r="E59" s="18">
-        <f>G36*G15</f>
-        <v>13542654.872267488</v>
+        <f t="shared" si="11"/>
+        <v>12636432.957600003</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -8641,12 +10740,12 @@
         <v>44378</v>
       </c>
       <c r="D60" s="18">
-        <f>E37*E16</f>
-        <v>17610529.82952483</v>
+        <f t="shared" si="10"/>
+        <v>16111452.020940002</v>
       </c>
       <c r="E60" s="18">
-        <f>G37*G16</f>
-        <v>14227913.208804224</v>
+        <f t="shared" si="11"/>
+        <v>12889161.616752004</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -8654,12 +10753,12 @@
         <v>44470</v>
       </c>
       <c r="D61" s="18">
-        <f>E38*E17</f>
-        <v>18142367.830376476</v>
+        <f t="shared" si="10"/>
+        <v>16598017.871972391</v>
       </c>
       <c r="E61" s="18">
-        <f>G38*G17</f>
-        <v>14947845.617169719</v>
+        <f t="shared" si="11"/>
+        <v>13275836.465254564</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -8667,12 +10766,12 @@
         <v>44562</v>
       </c>
       <c r="D62" s="18">
-        <f>E39*E18</f>
-        <v>18507029.423767045</v>
+        <f t="shared" si="10"/>
+        <v>17099278.011705957</v>
       </c>
       <c r="E62" s="18">
-        <f>G39*G18</f>
-        <v>15399270.554808244</v>
+        <f t="shared" si="11"/>
+        <v>13674111.5592122</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -8680,20 +10779,22 @@
         <v>44652</v>
       </c>
       <c r="D63" s="18">
-        <f>E40*E19</f>
-        <v>18879020.715184763</v>
+        <f t="shared" si="10"/>
+        <v>17615676.207659476</v>
       </c>
       <c r="E63" s="18">
-        <f>G40*G19</f>
-        <v>15864328.525563456</v>
+        <f t="shared" si="11"/>
+        <v>14221076.021580689</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="Y1:AA1"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="D25:E25"/>
+    <mergeCell ref="U1:W1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8702,10 +10803,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9323E8-C52F-D94C-BFD5-DE2F90B8B0EB}">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:AE63"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:H40"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8718,29 +10819,95 @@
     <col min="8" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="Y1" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AC1" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="Y2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="Y3" s="2">
+        <v>41275</v>
+      </c>
+      <c r="Z3">
+        <v>6520</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>3560.7604294478529</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>41275</v>
+      </c>
+      <c r="AD3">
+        <v>6520</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>3560.7604294478529</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54" t="s">
+      <c r="E4" s="76"/>
+      <c r="F4" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="54"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G4" s="76"/>
+      <c r="Y4" s="2">
+        <v>41365</v>
+      </c>
+      <c r="Z4">
+        <v>7613</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>4196.9394456850123</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>41365</v>
+      </c>
+      <c r="AD4">
+        <v>7613</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>4196.9394456850123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="9" t="s">
         <v>5</v>
@@ -8760,8 +10927,26 @@
       <c r="G5" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="Y5" s="2">
+        <v>41456</v>
+      </c>
+      <c r="Z5">
+        <v>7260</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>4637.0307162534436</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>41456</v>
+      </c>
+      <c r="AD5">
+        <v>7260</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>4637.0307162534436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="12">
         <v>43466</v>
       </c>
@@ -8769,8 +10954,26 @@
         <f>'Residential (Raw)'!C26</f>
         <v>8834</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="Y6" s="2">
+        <v>41548</v>
+      </c>
+      <c r="Z6">
+        <v>6600</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>4179.5419696969693</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>41548</v>
+      </c>
+      <c r="AD6">
+        <v>6600</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>4179.5419696969693</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B7" s="12">
         <v>43556</v>
       </c>
@@ -8778,8 +10981,26 @@
         <f>'Residential (Raw)'!C27</f>
         <v>9922</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2">
+        <v>41640</v>
+      </c>
+      <c r="Z7">
+        <v>5639</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>4957.8487320446884</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>41640</v>
+      </c>
+      <c r="AD7">
+        <v>5639</v>
+      </c>
+      <c r="AE7" s="4">
+        <v>4957.8487320446884</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B8" s="12">
         <v>43647</v>
       </c>
@@ -8787,8 +11008,26 @@
         <f>'Residential (Raw)'!C28</f>
         <v>10425</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="Y8" s="2">
+        <v>41730</v>
+      </c>
+      <c r="Z8">
+        <v>7313</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>4524.0768494461918</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>41730</v>
+      </c>
+      <c r="AD8">
+        <v>7313</v>
+      </c>
+      <c r="AE8" s="4">
+        <v>4524.0768494461918</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B9" s="12">
         <v>43739</v>
       </c>
@@ -8796,8 +11035,26 @@
         <f>'Residential (Raw)'!C29</f>
         <v>9358</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="Y9" s="2">
+        <v>41821</v>
+      </c>
+      <c r="Z9">
+        <v>7846</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>4548.8822329849609</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>41821</v>
+      </c>
+      <c r="AD9">
+        <v>7846</v>
+      </c>
+      <c r="AE9" s="4">
+        <v>4548.8822329849609</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B10" s="12">
         <v>43831</v>
       </c>
@@ -8805,8 +11062,26 @@
         <f>'Residential (Raw)'!C30</f>
         <v>8582</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="Y10" s="2">
+        <v>41913</v>
+      </c>
+      <c r="Z10">
+        <v>7239</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>4568.0310816411111</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>41913</v>
+      </c>
+      <c r="AD10">
+        <v>7239</v>
+      </c>
+      <c r="AE10" s="4">
+        <v>4568.0310816411111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B11" s="12">
         <v>43922</v>
       </c>
@@ -8814,8 +11089,26 @@
         <f>'Residential (Raw)'!C31</f>
         <v>4910</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="Y11" s="2">
+        <v>42005</v>
+      </c>
+      <c r="Z11">
+        <v>7499</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>3749.7770369382579</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>42005</v>
+      </c>
+      <c r="AD11">
+        <v>7499</v>
+      </c>
+      <c r="AE11" s="4">
+        <v>3749.7770369382579</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B12" s="12">
         <v>44013</v>
       </c>
@@ -8823,8 +11116,26 @@
         <f>'Residential (Raw)'!C32</f>
         <v>8566</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="Y12" s="2">
+        <v>42095</v>
+      </c>
+      <c r="Z12">
+        <v>9434</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>4485.7036251854988</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>42095</v>
+      </c>
+      <c r="AD12">
+        <v>9434</v>
+      </c>
+      <c r="AE12" s="4">
+        <v>4485.7036251854988</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B13" s="12">
         <v>44105</v>
       </c>
@@ -8832,8 +11143,26 @@
         <f>'Residential (Raw)'!C33</f>
         <v>9638</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="Y13" s="2">
+        <v>42186</v>
+      </c>
+      <c r="Z13">
+        <v>9654</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>5065.3522892065466</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>42186</v>
+      </c>
+      <c r="AD13">
+        <v>9654</v>
+      </c>
+      <c r="AE13" s="4">
+        <v>5065.3522892065466</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>9</v>
       </c>
@@ -8844,19 +11173,36 @@
         <v>0.95</v>
       </c>
       <c r="E14" s="10">
-        <f>C6*D14</f>
-        <v>8392.2999999999993</v>
+        <f>C10*D14</f>
+        <v>8152.9</v>
       </c>
       <c r="F14" s="14">
-        <f>0.85</f>
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="G14" s="10">
-        <f>F14*C6</f>
-        <v>7508.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <f>F14*C10</f>
+        <v>7723.8</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>42278</v>
+      </c>
+      <c r="Z14">
+        <v>9692</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>4156.1088526619897</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>42278</v>
+      </c>
+      <c r="AD14">
+        <v>9692</v>
+      </c>
+      <c r="AE14" s="4">
+        <v>4156.1088526619897</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B15" s="12">
         <v>44287</v>
       </c>
@@ -8874,65 +11220,137 @@
         <f t="shared" ref="G15:G17" si="1">F15*C7</f>
         <v>8433.6999999999989</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="Y15" s="2">
+        <v>42370</v>
+      </c>
+      <c r="Z15">
+        <v>9067</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>4088.719863240322</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>42370</v>
+      </c>
+      <c r="AD15">
+        <v>9067</v>
+      </c>
+      <c r="AE15" s="4">
+        <v>4088.719863240322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B16" s="12">
         <v>44378</v>
       </c>
       <c r="D16" s="14">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E16" s="10">
         <f t="shared" si="0"/>
-        <v>9903.75</v>
+        <v>9382.5</v>
       </c>
       <c r="F16" s="14">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="G16" s="10">
         <f t="shared" si="1"/>
-        <v>9382.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>8861.25</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>42461</v>
+      </c>
+      <c r="Z16">
+        <v>11356</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>3960.0988904543851</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>42461</v>
+      </c>
+      <c r="AD16">
+        <v>11356</v>
+      </c>
+      <c r="AE16" s="4">
+        <v>3960.0988904543851</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B17" s="12">
         <v>44470</v>
       </c>
       <c r="D17" s="14">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E17" s="10">
         <f t="shared" si="0"/>
-        <v>8890.1</v>
+        <v>9358</v>
       </c>
       <c r="F17" s="14">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G17" s="10">
         <f t="shared" si="1"/>
-        <v>8422.2000000000007</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>8890.1</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>42552</v>
+      </c>
+      <c r="Z17">
+        <v>11165</v>
+      </c>
+      <c r="AA17" s="4">
+        <v>4510.4024182713838</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>42552</v>
+      </c>
+      <c r="AD17">
+        <v>11165</v>
+      </c>
+      <c r="AE17" s="4">
+        <v>4510.4024182713838</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B18" s="12">
         <v>44562</v>
       </c>
       <c r="D18" s="14">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="E18" s="10">
         <f>D18*C6</f>
-        <v>8834</v>
+        <v>9275.7000000000007</v>
       </c>
       <c r="F18" s="14">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G18" s="10">
         <f>F18*C6</f>
-        <v>8392.2999999999993</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>8834</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>42644</v>
+      </c>
+      <c r="Z18">
+        <v>10249</v>
+      </c>
+      <c r="AA18" s="4">
+        <v>4417.8950141477217</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>42644</v>
+      </c>
+      <c r="AD18">
+        <v>10249</v>
+      </c>
+      <c r="AE18" s="4">
+        <v>4417.8950141477217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B19" s="12">
         <v>44652</v>
       </c>
@@ -8944,27 +11362,139 @@
         <v>9922</v>
       </c>
       <c r="F19" s="14">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G19" s="10">
         <f>F19*C7</f>
-        <v>9425.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9922</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>42736</v>
+      </c>
+      <c r="Z19">
+        <v>9818</v>
+      </c>
+      <c r="AA19" s="4">
+        <v>3941.7239763699331</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>42736</v>
+      </c>
+      <c r="AD19">
+        <v>9818</v>
+      </c>
+      <c r="AE19" s="4">
+        <v>3941.7239763699331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="20"/>
-    </row>
-    <row r="22" spans="1:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="Y20" s="2">
+        <v>42826</v>
+      </c>
+      <c r="Z20">
+        <v>10775</v>
+      </c>
+      <c r="AA20" s="4">
+        <v>5146.0131786542916</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>42826</v>
+      </c>
+      <c r="AD20">
+        <v>10775</v>
+      </c>
+      <c r="AE20" s="4">
+        <v>5146.0131786542916</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="Y21" s="2">
+        <v>42917</v>
+      </c>
+      <c r="Z21">
+        <v>10898</v>
+      </c>
+      <c r="AA21" s="4">
+        <v>5529.8978711690224</v>
+      </c>
+      <c r="AC21" s="2">
+        <v>42917</v>
+      </c>
+      <c r="AD21">
+        <v>10898</v>
+      </c>
+      <c r="AE21" s="4">
+        <v>5529.8978711690224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" ht="26" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="Y22" s="2">
+        <v>43009</v>
+      </c>
+      <c r="Z22">
+        <v>9709</v>
+      </c>
+      <c r="AA22" s="4">
+        <v>5078.26501184468</v>
+      </c>
+      <c r="AC22" s="2">
+        <v>43009</v>
+      </c>
+      <c r="AD22">
+        <v>9709</v>
+      </c>
+      <c r="AE22" s="4">
+        <v>5078.26501184468</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="Y23" s="2">
+        <v>43101</v>
+      </c>
+      <c r="Z23">
+        <v>8945</v>
+      </c>
+      <c r="AA23" s="4">
+        <v>5901.323868082728</v>
+      </c>
+      <c r="AC23" s="2">
+        <v>43101</v>
+      </c>
+      <c r="AD23">
+        <v>8945</v>
+      </c>
+      <c r="AE23" s="4">
+        <v>5901.323868082728</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="Y24" s="2">
+        <v>43191</v>
+      </c>
+      <c r="Z24">
+        <v>11128</v>
+      </c>
+      <c r="AA24" s="4">
+        <v>5876.3190150970522</v>
+      </c>
+      <c r="AC24" s="2">
+        <v>43191</v>
+      </c>
+      <c r="AD24">
+        <v>11128</v>
+      </c>
+      <c r="AE24" s="4">
+        <v>5876.3190150970522</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="19" t="s">
@@ -8976,8 +11506,26 @@
       <c r="G25" s="19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="Y25" s="2">
+        <v>43282</v>
+      </c>
+      <c r="Z25">
+        <v>10558</v>
+      </c>
+      <c r="AA25" s="4">
+        <v>6615.3257245690475</v>
+      </c>
+      <c r="AC25" s="2">
+        <v>43282</v>
+      </c>
+      <c r="AD25">
+        <v>10558</v>
+      </c>
+      <c r="AE25" s="4">
+        <v>6615.3257245690475</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
       <c r="B26" s="9" t="s">
         <v>5</v>
@@ -8991,11 +11539,29 @@
       <c r="E26" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="55">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G26" s="66">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>43374</v>
+      </c>
+      <c r="Z26">
+        <v>10052</v>
+      </c>
+      <c r="AA26" s="4">
+        <v>6229.6869279745324</v>
+      </c>
+      <c r="AC26" s="2">
+        <v>43374</v>
+      </c>
+      <c r="AD26">
+        <v>10052</v>
+      </c>
+      <c r="AE26" s="4">
+        <v>6229.6869279745324</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B27" s="12">
         <v>43466</v>
       </c>
@@ -9003,8 +11569,27 @@
         <f>'Residential (Raw)'!D26</f>
         <v>5167.1956078786507</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G27" s="66"/>
+      <c r="Y27" s="2">
+        <v>43466</v>
+      </c>
+      <c r="Z27">
+        <v>8834</v>
+      </c>
+      <c r="AA27" s="4">
+        <v>5167.1956078786507</v>
+      </c>
+      <c r="AC27" s="2">
+        <v>43466</v>
+      </c>
+      <c r="AD27">
+        <v>8834</v>
+      </c>
+      <c r="AE27" s="4">
+        <v>5167.1956078786507</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B28" s="12">
         <v>43556</v>
       </c>
@@ -9012,11 +11597,29 @@
         <f>'Residential (Raw)'!D27</f>
         <v>6970.4639185648057</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="67" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="Y28" s="2">
+        <v>43556</v>
+      </c>
+      <c r="Z28">
+        <v>9922</v>
+      </c>
+      <c r="AA28" s="4">
+        <v>6970.4639185648057</v>
+      </c>
+      <c r="AC28" s="2">
+        <v>43556</v>
+      </c>
+      <c r="AD28">
+        <v>9922</v>
+      </c>
+      <c r="AE28" s="4">
+        <v>6970.4639185648057</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B29" s="12">
         <v>43647</v>
       </c>
@@ -9024,11 +11627,29 @@
         <f>'Residential (Raw)'!D28</f>
         <v>6013.3535731414868</v>
       </c>
-      <c r="G29" s="55">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G29" s="66">
+        <v>0.01</v>
+      </c>
+      <c r="Y29" s="2">
+        <v>43647</v>
+      </c>
+      <c r="Z29">
+        <v>10425</v>
+      </c>
+      <c r="AA29" s="4">
+        <v>6013.3535731414868</v>
+      </c>
+      <c r="AC29" s="2">
+        <v>43647</v>
+      </c>
+      <c r="AD29">
+        <v>10425</v>
+      </c>
+      <c r="AE29" s="4">
+        <v>6013.3535731414868</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B30" s="12">
         <v>43739</v>
       </c>
@@ -9036,8 +11657,26 @@
         <f>'Residential (Raw)'!D29</f>
         <v>6160.9285103654629</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="Y30" s="2">
+        <v>43739</v>
+      </c>
+      <c r="Z30">
+        <v>9358</v>
+      </c>
+      <c r="AA30" s="4">
+        <v>6160.9285103654629</v>
+      </c>
+      <c r="AC30" s="2">
+        <v>43739</v>
+      </c>
+      <c r="AD30">
+        <v>9358</v>
+      </c>
+      <c r="AE30" s="4">
+        <v>6160.9285103654629</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B31" s="12">
         <v>43831</v>
       </c>
@@ -9045,8 +11684,26 @@
         <f>'Residential (Raw)'!D30</f>
         <v>6330.0763225355386</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="Y31" s="2">
+        <v>43831</v>
+      </c>
+      <c r="Z31">
+        <v>8582</v>
+      </c>
+      <c r="AA31" s="4">
+        <v>6330.0763225355386</v>
+      </c>
+      <c r="AC31" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AD31">
+        <v>8582</v>
+      </c>
+      <c r="AE31" s="4">
+        <v>6330.0763225355386</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B32" s="12">
         <v>43922</v>
       </c>
@@ -9054,8 +11711,26 @@
         <f>'Residential (Raw)'!D31</f>
         <v>7232.8708757637478</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="Y32" s="2">
+        <v>43922</v>
+      </c>
+      <c r="Z32">
+        <v>4910</v>
+      </c>
+      <c r="AA32" s="4">
+        <v>7232.8708757637478</v>
+      </c>
+      <c r="AC32" s="2">
+        <v>43922</v>
+      </c>
+      <c r="AD32">
+        <v>4910</v>
+      </c>
+      <c r="AE32" s="4">
+        <v>7232.8708757637478</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B33" s="12">
         <v>44013</v>
       </c>
@@ -9063,8 +11738,26 @@
         <f>'Residential (Raw)'!D32</f>
         <v>6779.7326640205474</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="Y33" s="2">
+        <v>44013</v>
+      </c>
+      <c r="Z33">
+        <v>8566</v>
+      </c>
+      <c r="AA33" s="4">
+        <v>6779.7326640205474</v>
+      </c>
+      <c r="AC33" s="2">
+        <v>44013</v>
+      </c>
+      <c r="AD33">
+        <v>8566</v>
+      </c>
+      <c r="AE33" s="4">
+        <v>6779.7326640205474</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B34" s="12">
         <v>44105</v>
       </c>
@@ -9072,8 +11765,26 @@
         <f>'Residential (Raw)'!D33</f>
         <v>7462.8843120979454</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="Y34" s="2">
+        <v>44105</v>
+      </c>
+      <c r="Z34">
+        <v>9638</v>
+      </c>
+      <c r="AA34" s="4">
+        <v>7462.8843120979454</v>
+      </c>
+      <c r="AC34" s="2">
+        <v>44105</v>
+      </c>
+      <c r="AD34">
+        <v>9638</v>
+      </c>
+      <c r="AE34" s="4">
+        <v>7462.8843120979454</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>9</v>
       </c>
@@ -9082,79 +11793,223 @@
       </c>
       <c r="D35" s="18">
         <f>AVERAGE(C31:C34)*(1+$G$26)</f>
-        <v>7090.4188644765336</v>
+        <v>7003.5264764314779</v>
       </c>
       <c r="E35" s="18">
-        <f>AVERAGE(C31:C34)*(1+G29)</f>
-        <v>6986.1479988224655</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <f>0.95*AVERAGE(C31:C34)*(1+G29)</f>
+        <v>6669.8597063384641</v>
+      </c>
+      <c r="Y35" s="57">
+        <f>B14</f>
+        <v>44197</v>
+      </c>
+      <c r="Z35" s="10">
+        <f>E14</f>
+        <v>8152.9</v>
+      </c>
+      <c r="AA35" s="17">
+        <f>D35</f>
+        <v>7003.5264764314779</v>
+      </c>
+      <c r="AC35" s="57">
+        <f>Y35</f>
+        <v>44197</v>
+      </c>
+      <c r="AD35" s="10">
+        <f>G14</f>
+        <v>7723.8</v>
+      </c>
+      <c r="AE35" s="17">
+        <f>E35</f>
+        <v>6669.8597063384641</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B36" s="12">
         <v>44287</v>
       </c>
       <c r="D36" s="18">
         <f>D35*(1+$G$26)</f>
-        <v>7232.2272417660643</v>
+        <v>7056.0529250047148</v>
       </c>
       <c r="E36" s="18">
         <f>E35*(1+$G$29)</f>
-        <v>7021.0787388165772</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6736.5583034018491</v>
+      </c>
+      <c r="Y36" s="57">
+        <f t="shared" ref="Y36:Y40" si="2">B15</f>
+        <v>44287</v>
+      </c>
+      <c r="Z36" s="10">
+        <f t="shared" ref="Z36:Z40" si="3">E15</f>
+        <v>9425.9</v>
+      </c>
+      <c r="AA36" s="17">
+        <f t="shared" ref="AA36:AA40" si="4">D36</f>
+        <v>7056.0529250047148</v>
+      </c>
+      <c r="AC36" s="57">
+        <f t="shared" ref="AC36:AC39" si="5">Y36</f>
+        <v>44287</v>
+      </c>
+      <c r="AD36" s="10">
+        <f t="shared" ref="AD36:AD40" si="6">G15</f>
+        <v>8433.6999999999989</v>
+      </c>
+      <c r="AE36" s="17">
+        <f t="shared" ref="AE36:AE40" si="7">E36</f>
+        <v>6736.5583034018491</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B37" s="12">
         <v>44378</v>
       </c>
       <c r="D37" s="18">
-        <f t="shared" ref="D37:D40" si="2">D36*(1+$G$26)</f>
-        <v>7376.8717866013858</v>
+        <f t="shared" ref="D37:D40" si="8">D36*(1+$G$26)</f>
+        <v>7108.9733219422505</v>
       </c>
       <c r="E37" s="18">
-        <f t="shared" ref="E37:E40" si="3">E36*(1+$G$29)</f>
-        <v>7056.1841325106598</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" ref="E37:E40" si="9">E36*(1+$G$29)</f>
+        <v>6803.9238864358676</v>
+      </c>
+      <c r="Y37" s="57">
+        <f t="shared" si="2"/>
+        <v>44378</v>
+      </c>
+      <c r="Z37" s="10">
+        <f t="shared" si="3"/>
+        <v>9382.5</v>
+      </c>
+      <c r="AA37" s="17">
+        <f t="shared" si="4"/>
+        <v>7108.9733219422505</v>
+      </c>
+      <c r="AC37" s="57">
+        <f t="shared" si="5"/>
+        <v>44378</v>
+      </c>
+      <c r="AD37" s="10">
+        <f t="shared" si="6"/>
+        <v>8861.25</v>
+      </c>
+      <c r="AE37" s="17">
+        <f t="shared" si="7"/>
+        <v>6803.9238864358676</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B38" s="12">
         <v>44470</v>
       </c>
       <c r="D38" s="18">
+        <f t="shared" si="8"/>
+        <v>7162.2906218568178</v>
+      </c>
+      <c r="E38" s="18">
+        <f t="shared" si="9"/>
+        <v>6871.9631253002262</v>
+      </c>
+      <c r="Y38" s="57">
         <f t="shared" si="2"/>
-        <v>7524.4092223334137</v>
-      </c>
-      <c r="E38" s="18">
+        <v>44470</v>
+      </c>
+      <c r="Z38" s="10">
         <f t="shared" si="3"/>
-        <v>7091.4650531732123</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9358</v>
+      </c>
+      <c r="AA38" s="17">
+        <f t="shared" si="4"/>
+        <v>7162.2906218568178</v>
+      </c>
+      <c r="AC38" s="57">
+        <f t="shared" si="5"/>
+        <v>44470</v>
+      </c>
+      <c r="AD38" s="10">
+        <f t="shared" si="6"/>
+        <v>8890.1</v>
+      </c>
+      <c r="AE38" s="17">
+        <f t="shared" si="7"/>
+        <v>6871.9631253002262</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B39" s="12">
         <v>44562</v>
       </c>
       <c r="D39" s="18">
+        <f t="shared" si="8"/>
+        <v>7216.0078015207446</v>
+      </c>
+      <c r="E39" s="18">
+        <f t="shared" si="9"/>
+        <v>6940.6827565532285</v>
+      </c>
+      <c r="Y39" s="57">
         <f t="shared" si="2"/>
-        <v>7674.8974067800818</v>
-      </c>
-      <c r="E39" s="18">
+        <v>44562</v>
+      </c>
+      <c r="Z39" s="10">
         <f t="shared" si="3"/>
-        <v>7126.9223784390779</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9275.7000000000007</v>
+      </c>
+      <c r="AA39" s="17">
+        <f t="shared" si="4"/>
+        <v>7216.0078015207446</v>
+      </c>
+      <c r="AC39" s="57">
+        <f t="shared" si="5"/>
+        <v>44562</v>
+      </c>
+      <c r="AD39" s="10">
+        <f t="shared" si="6"/>
+        <v>8834</v>
+      </c>
+      <c r="AE39" s="17">
+        <f t="shared" si="7"/>
+        <v>6940.6827565532285</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B40" s="12">
         <v>44652</v>
       </c>
       <c r="D40" s="18">
+        <f t="shared" si="8"/>
+        <v>7270.1278600321502</v>
+      </c>
+      <c r="E40" s="18">
+        <f t="shared" si="9"/>
+        <v>7010.0895841187612</v>
+      </c>
+      <c r="Y40" s="57">
         <f t="shared" si="2"/>
-        <v>7828.395354915684</v>
-      </c>
-      <c r="E40" s="18">
+        <v>44652</v>
+      </c>
+      <c r="Z40" s="10">
         <f t="shared" si="3"/>
-        <v>7162.5569903312726</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+        <v>9922</v>
+      </c>
+      <c r="AA40" s="17">
+        <f t="shared" si="4"/>
+        <v>7270.1278600321502</v>
+      </c>
+      <c r="AC40" s="57">
+        <f>Y40</f>
+        <v>44652</v>
+      </c>
+      <c r="AD40" s="10">
+        <f t="shared" si="6"/>
+        <v>9922</v>
+      </c>
+      <c r="AE40" s="17">
+        <f t="shared" si="7"/>
+        <v>7010.0895841187612</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" ht="26" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>12</v>
       </c>
@@ -9255,11 +12110,11 @@
       </c>
       <c r="D58" s="17">
         <f>D35*E14</f>
-        <v>59504922.236346409</v>
+        <v>57099051.009698197</v>
       </c>
       <c r="E58" s="16">
         <f>E35*G14</f>
-        <v>52458286.708358012</v>
+        <v>51516662.399817027</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -9267,12 +12122,12 @@
         <v>44287</v>
       </c>
       <c r="D59" s="17">
-        <f t="shared" ref="D59:D63" si="4">D36*E15</f>
-        <v>68170250.758162737</v>
+        <f t="shared" ref="D59:D63" si="10">D36*E15</f>
+        <v>66509649.265801936</v>
       </c>
       <c r="E59" s="16">
-        <f t="shared" ref="E59:E63" si="5">E36*G15</f>
-        <v>59213671.759557359</v>
+        <f t="shared" ref="E59:E63" si="11">E36*G15</f>
+        <v>56814111.763400167</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -9280,12 +12135,12 @@
         <v>44378</v>
       </c>
       <c r="D60" s="17">
-        <f t="shared" si="4"/>
-        <v>73058693.956553474</v>
+        <f t="shared" si="10"/>
+        <v>66699942.193123169</v>
       </c>
       <c r="E60" s="16">
-        <f t="shared" si="5"/>
-        <v>66204647.623281263</v>
+        <f t="shared" si="11"/>
+        <v>60291270.538679831</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -9293,12 +12148,12 @@
         <v>44470</v>
       </c>
       <c r="D61" s="17">
-        <f t="shared" si="4"/>
-        <v>66892750.427466281</v>
+        <f t="shared" si="10"/>
+        <v>67024715.639336102</v>
       </c>
       <c r="E61" s="16">
-        <f t="shared" si="5"/>
-        <v>59725736.970835432</v>
+        <f t="shared" si="11"/>
+        <v>61092439.380231544</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -9306,12 +12161,12 @@
         <v>44562</v>
       </c>
       <c r="D62" s="17">
-        <f t="shared" si="4"/>
-        <v>67800043.69149524</v>
+        <f t="shared" si="10"/>
+        <v>66933523.564565979</v>
       </c>
       <c r="E62" s="16">
-        <f t="shared" si="5"/>
-        <v>59811270.676574267</v>
+        <f t="shared" si="11"/>
+        <v>61313991.471391223</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -9319,18 +12174,20 @@
         <v>44652</v>
       </c>
       <c r="D63" s="17">
-        <f t="shared" si="4"/>
-        <v>77673338.71147342</v>
+        <f t="shared" si="10"/>
+        <v>72134208.627238989</v>
       </c>
       <c r="E63" s="16">
-        <f t="shared" si="5"/>
-        <v>67513545.935163543</v>
+        <f t="shared" si="11"/>
+        <v>69554108.853626356</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AC1:AE1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9342,7 +12199,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A33"/>
+      <selection activeCell="D33" sqref="A1:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9825,7 +12682,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:A33"/>
+      <selection sqref="A1:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
